--- a/Current Account/Current Account - Service Domain Specification.xlsx
+++ b/Current Account/Current Account - Service Domain Specification.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\#Root\Reshma\TEG\Work\BIAN\work\BIAN march 2017\BIAN-TCS\BIAN\coreless\automation\patrick\new files in excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharrierr Ganapathy\Documents\GitHub\artefacts - Copy\Current Account\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0245F532-AC1B-48EC-9413-146EC36E9C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6468"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CurrentAccountSpecification" localSheetId="0">Sheet1!$A$1:$B$18</definedName>
+    <definedName name="CurrentAccountSpecification" localSheetId="0">Sheet1!$A$1:$B$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="CurrentAccountSpecification" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="CurrentAccountSpecification" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\BACKUP\#Root\Reshma\TEG\Work\BIAN\work\BIAN march 2017\BIAN-TCS\BIAN\coreless\automation\patrick\new files\CurrentAccountSpecification.csv">
       <textFields count="2">
         <textField/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Service Domain specification for Current Account</t>
   </si>
@@ -84,24 +85,6 @@
     <t>Key Features</t>
   </si>
   <si>
-    <t>Set-up current account facilities</t>
-  </si>
-  <si>
-    <t>Issue cards, check-books for an account</t>
-  </si>
-  <si>
-    <t>Process deposits and withdrawals</t>
-  </si>
-  <si>
-    <t>Handle standing orders and direct debits</t>
-  </si>
-  <si>
-    <t>Process fees and apply interest charges</t>
-  </si>
-  <si>
-    <t>Provide balance/statements and reports"</t>
-  </si>
-  <si>
     <t>Functional Pattern</t>
   </si>
   <si>
@@ -130,12 +113,15 @@
   </si>
   <si>
     <t>Registered</t>
+  </si>
+  <si>
+    <t>Set-up current account facilities, Issue cards, check-books for an account, Process deposits and withdrawals, Handle standing orders and direct debits.Process fees and apply interest charges. Provide balance/statements and reports.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +174,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CurrentAccountSpecification" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="CurrentAccountSpecification" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,16 +506,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -537,60 +526,32 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
